--- a/table设计需求列表说明书-pqh.xlsx
+++ b/table设计需求列表说明书-pqh.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>编号</t>
   </si>
@@ -111,34 +111,109 @@
     <t>风险</t>
   </si>
   <si>
-    <t>实现表头数据渲染</t>
+    <t>实现表头数据固定展示</t>
+  </si>
+  <si>
+    <t>1-核心特性</t>
+  </si>
+  <si>
+    <t>4-一般</t>
+  </si>
+  <si>
+    <t>1-架构级影响</t>
+  </si>
+  <si>
+    <t>3-项目级关注</t>
+  </si>
+  <si>
+    <t>实现表头数据数据自定义展示</t>
   </si>
   <si>
     <t>2-重要特性</t>
   </si>
   <si>
-    <t>4-一般</t>
-  </si>
-  <si>
-    <t>1-架构级影响</t>
+    <t>表格内容展示</t>
+  </si>
+  <si>
+    <t>3-接口级影响</t>
+  </si>
+  <si>
+    <t>表格内容斑马纹展示</t>
+  </si>
+  <si>
+    <t>3-美化特性</t>
+  </si>
+  <si>
+    <t>3-复杂</t>
   </si>
   <si>
     <t>4-正常跟进</t>
   </si>
   <si>
-    <t>实现表格数据渲染</t>
-  </si>
-  <si>
-    <t>列表分页功能</t>
-  </si>
-  <si>
-    <t>排序功能</t>
-  </si>
-  <si>
-    <t>列表选择</t>
+    <t>表格内容自定义插槽</t>
+  </si>
+  <si>
+    <t>表格内容空数据展示</t>
+  </si>
+  <si>
+    <t>5-一般</t>
+  </si>
+  <si>
+    <t>2-架构级影响</t>
+  </si>
+  <si>
+    <t>5-正常跟进</t>
+  </si>
+  <si>
+    <t>表格内容边框与取消边框</t>
+  </si>
+  <si>
+    <t>6-一般</t>
+  </si>
+  <si>
+    <t>3-架构级影响</t>
+  </si>
+  <si>
+    <t>6-正常跟进</t>
+  </si>
+  <si>
+    <t>表格内容排序</t>
+  </si>
+  <si>
+    <t>表格内容筛选功能</t>
+  </si>
+  <si>
+    <t>多行选择</t>
   </si>
   <si>
     <t>4-扩展特性</t>
+  </si>
+  <si>
+    <t>2-特性级影响</t>
+  </si>
+  <si>
+    <t>分页选择</t>
+  </si>
+  <si>
+    <t>分页功能：上下页跳转</t>
+  </si>
+  <si>
+    <t>分页功能：自定义页码</t>
+  </si>
+  <si>
+    <t>3-重要特性</t>
+  </si>
+  <si>
+    <t>4-项目级关注</t>
+  </si>
+  <si>
+    <t>分页功能：页面跳转</t>
+  </si>
+  <si>
+    <t>4-重要特性</t>
+  </si>
+  <si>
+    <t>5-项目级关注</t>
   </si>
 </sst>
 </file>
@@ -146,8 +221,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -159,6 +234,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -166,7 +248,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -179,39 +313,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -223,16 +326,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -245,37 +341,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -299,91 +374,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -454,8 +520,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +560,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,148 +589,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,25 +765,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="7"/>
     <cellStyle name="标题" xfId="8"/>
     <cellStyle name="货币[0]" xfId="9" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="输入" xfId="11"/>
-    <cellStyle name="差" xfId="12"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="输入" xfId="10"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="差" xfId="13"/>
     <cellStyle name="强调文字颜色 3" xfId="14"/>
-    <cellStyle name="警告文本" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15"/>
     <cellStyle name="标题 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="18"/>
-    <cellStyle name="链接单元格" xfId="19"/>
+    <cellStyle name="强调文字颜色 2" xfId="19"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="27"/>
-    <cellStyle name="强调文字颜色 1" xfId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="28"/>
     <cellStyle name="适中" xfId="29"/>
     <cellStyle name="好" xfId="30"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="31"/>
@@ -1034,18 +1109,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1065,7 +1142,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1123,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -1140,16 +1217,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -1160,19 +1237,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1180,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -1192,98 +1269,188 @@
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
